--- a/biology/Médecine/Albert_Gervais_(médecin)/Albert_Gervais_(médecin).xlsx
+++ b/biology/Médecine/Albert_Gervais_(médecin)/Albert_Gervais_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albert_Gervais_(m%C3%A9decin)</t>
+          <t>Albert_Gervais_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Lucien Élie Gervais, né le 1er janvier 1892 à Marseille et mort le 25 novembre 1979 à Nice[1], est un écrivain, peintre, sculpteur et médecin français qui a enseigné la médecine au Sichuan à partir d'octobre 1911. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Lucien Élie Gervais, né le 1er janvier 1892 à Marseille et mort le 25 novembre 1979 à Nice, est un écrivain, peintre, sculpteur et médecin français qui a enseigné la médecine au Sichuan à partir d'octobre 1911. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albert_Gervais_(m%C3%A9decin)</t>
+          <t>Albert_Gervais_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a vécu de longues années en Chine. Son livre Æsculape en Chine raconte son expérience sur le Yang-tsé-kiang[2]. Il est le fils du peintre Paul Gervais (1859-1944).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a vécu de longues années en Chine. Son livre Æsculape en Chine raconte son expérience sur le Yang-tsé-kiang. Il est le fils du peintre Paul Gervais (1859-1944).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Albert_Gervais_(m%C3%A9decin)</t>
+          <t>Albert_Gervais_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,17 +556,19 @@
           <t>Ses œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Une fille de H'an, roman, Bernard Grasset, 1928 ; il reçoit le prix Montyon de l'Académie française en 1929[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Une fille de H'an, roman, Bernard Grasset, 1928 ; il reçoit le prix Montyon de l'Académie française en 1929.
 Sur les Jonques du Ming-H'o, Revue maritime.
 La Jalousie de Wang-fou-lin, Balsac.
 Le Drame de Yang-tche-kai, Nouvelle Revue.
 La Guerre au Szetchouan, Revue maritime.
 « Le grand Général et le petit Marchand de gâteaux », Revue maritime, nouvelle série no 96, décembre 1927.
 Sur la Montagne sacrée d'Omei, Bulletin franco-chinois.
-Æsculape en Chine, Gallimard, 1933 ;  l'ouvrage a été traduit en allemand [4] : Ein Arzt erlebt China, Bern, Leipzig &amp; Wien : Wilhelm Goldmann, 1935 puis München : Goldmann, 1950, et en anglais : Medicine man in China, Frederick A. Stokes company, 1934 et A surgeon's China, London : Hamish Hamilton, 1934.
-L'Ombre du Ma-koui, Gallimard, 1936 ; l'ouvrage a été traduit en anglais [5] : The Ghosts of Sin-Chang par Vyvyan Holland, Londres, Hamish Hamilton, 1936.
+Æsculape en Chine, Gallimard, 1933 ;  l'ouvrage a été traduit en allemand  : Ein Arzt erlebt China, Bern, Leipzig &amp; Wien : Wilhelm Goldmann, 1935 puis München : Goldmann, 1950, et en anglais : Medicine man in China, Frederick A. Stokes company, 1934 et A surgeon's China, London : Hamish Hamilton, 1934.
+L'Ombre du Ma-koui, Gallimard, 1936 ; l'ouvrage a été traduit en anglais  : The Ghosts of Sin-Chang par Vyvyan Holland, Londres, Hamish Hamilton, 1936.
 Æsculape dans la Chine en révolte, Gallimard, 1953.</t>
         </is>
       </c>
